--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/CV_TomLangbehn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27774AF1-D6DF-46EB-97B6-DB242729F9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{27774AF1-D6DF-46EB-97B6-DB242729F9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{24790E4E-ECC8-4908-861B-5E6FD5F991D9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>what</t>
   </si>
@@ -37,49 +37,61 @@
     <t>why</t>
   </si>
   <si>
-    <t>Ph.D. in Learning, Design, and Technology</t>
-  </si>
-  <si>
-    <t>The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>University Park, PA</t>
-  </si>
-  <si>
-    <t>Aug. 2016 - Present</t>
-  </si>
-  <si>
-    <t>M.Ed. in Learning, Design, and Technology</t>
-  </si>
-  <si>
-    <t>Aug. 2014 - May. 2016</t>
-  </si>
-  <si>
-    <t>Sungkyunkwan University</t>
-  </si>
-  <si>
-    <t>Mar. 2009 - Feb. 2014</t>
-  </si>
-  <si>
-    <t>GPA 3.97/4.0.</t>
-  </si>
-  <si>
-    <t>GPA 4.08/4.50.</t>
-  </si>
-  <si>
-    <t>Committee members: Drs. Gabriela T. Richard (adviser; dissertation chair), Roy B. Clariana, ChanMin Kim, and Mary Beth Rosson.</t>
-  </si>
-  <si>
-    <t>Dissertation Title: "Discovering Informal Learning Cultures of Blind Individuals Pursuing STEM Disciplines: A Quantitative Ethnography Using Public Listserv Archives."</t>
-  </si>
-  <si>
-    <t>Seoul, South Korea</t>
-  </si>
-  <si>
-    <t>Expected graduation: May 2021.</t>
-  </si>
-  <si>
-    <t>Double B.A. in Education, English Literature</t>
+    <t>Graduate Programme Marine Biology (M.Sc.)</t>
+  </si>
+  <si>
+    <t>Faculty 2 Biology/Chemistry, University of Bremen</t>
+  </si>
+  <si>
+    <t>Bremen, Germany</t>
+  </si>
+  <si>
+    <t>Final grade: excellent</t>
+  </si>
+  <si>
+    <t>Department of Biological Sciences, University of Bergen</t>
+  </si>
+  <si>
+    <t>Bergen, Norway</t>
+  </si>
+  <si>
+    <t>Thesis title: "Feeding success in an extreme light environment: modelling seasonal prey encounter of Arctic fish"</t>
+  </si>
+  <si>
+    <t>Committee members: Prof. PhD Christian Jørgensen (University of Bergen), Prof. PhD Øyvind Fiksen (University of Bergen) and Associate Prof. PhD Øystein Varpe (University Centre in Svalbard).</t>
+  </si>
+  <si>
+    <t>Research Fellow / Doctoral student (PhD)</t>
+  </si>
+  <si>
+    <t>International Degree Course in Environmental and Industrial Biology (B.Sc.)</t>
+  </si>
+  <si>
+    <t>Faculty 5 Nature and Engineering, University of Applied Sciences Bremen</t>
+  </si>
+  <si>
+    <t>Thesis title: "Morphological diversity in parr of Atlantic salmon (Salmo salar L.) in Iceland"</t>
+  </si>
+  <si>
+    <t>Committee members: Prof. Dr. Heiko Brunken (University of Applied Sciences Bremen) and Prof. PhD Guðrún Marteinsdóttir (University of Iceland)</t>
+  </si>
+  <si>
+    <t>Dissertation title:  "Modelling limits to northward range shifts of marine organisms under climate warming"</t>
+  </si>
+  <si>
+    <t>Opponents: Prof. PhD Michael T. Burrows (Scottish Association for Marine Science, UK), PhD Xabier Irigoien (AZTI, Spain)</t>
+  </si>
+  <si>
+    <t>Feb 2016 - Mar 2019</t>
+  </si>
+  <si>
+    <t>Oct 2013 - Oct 2015</t>
+  </si>
+  <si>
+    <t>Sep 2009 - Feb 2013</t>
+  </si>
+  <si>
+    <t>Committee members: Prof. Dr. Wilhelm Hagen (University of Bremen) and Associate Prof. PhD Øystein Varpe (University Centre in Svalbard)</t>
   </si>
 </sst>
 </file>
@@ -920,13 +932,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="150.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -943,39 +964,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -984,24 +1005,44 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/CV_TomLangbehn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{27774AF1-D6DF-46EB-97B6-DB242729F9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{24790E4E-ECC8-4908-861B-5E6FD5F991D9}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{27774AF1-D6DF-46EB-97B6-DB242729F9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E0D65F9B-3A55-45FB-93DF-4942E51EFDC3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Bremen, Germany</t>
   </si>
   <si>
-    <t>Final grade: excellent</t>
-  </si>
-  <si>
     <t>Department of Biological Sciences, University of Bergen</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Committee members: Prof. Dr. Heiko Brunken (University of Applied Sciences Bremen) and Prof. PhD Guðrún Marteinsdóttir (University of Iceland)</t>
   </si>
   <si>
-    <t>Dissertation title:  "Modelling limits to northward range shifts of marine organisms under climate warming"</t>
-  </si>
-  <si>
     <t>Opponents: Prof. PhD Michael T. Burrows (Scottish Association for Marine Science, UK), PhD Xabier Irigoien (AZTI, Spain)</t>
   </si>
   <si>
@@ -92,6 +86,12 @@
   </si>
   <si>
     <t>Committee members: Prof. Dr. Wilhelm Hagen (University of Bremen) and Associate Prof. PhD Øystein Varpe (University Centre in Svalbard)</t>
+  </si>
+  <si>
+    <t>Dissertation title:  "Light and visual foraging in the pelagic: Opportunities and constraints along gradients of seasonality"</t>
+  </si>
+  <si>
+    <t>Final grade: Excellent</t>
   </si>
 </sst>
 </file>
@@ -966,29 +966,29 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1005,44 +1005,44 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{27774AF1-D6DF-46EB-97B6-DB242729F9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E0D65F9B-3A55-45FB-93DF-4942E51EFDC3}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{27774AF1-D6DF-46EB-97B6-DB242729F9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{109D132E-5E8C-4315-968E-04F1E40F4732}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>what</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Final grade: Excellent</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -575,8 +578,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,116 +938,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="150.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="150.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{27774AF1-D6DF-46EB-97B6-DB242729F9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{109D132E-5E8C-4315-968E-04F1E40F4732}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{27774AF1-D6DF-46EB-97B6-DB242729F9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C8A5BB54-6143-405A-A671-2396D12E9BEA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>what</t>
   </si>
@@ -95,6 +106,33 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>As part of the  European Training Network on"Marine Management and Ecosystem Dynamics under Climate Change - MARmaED"</t>
+  </si>
+  <si>
+    <t>Bergen Summer research School: Water, Climate &amp; Society</t>
+  </si>
+  <si>
+    <t>Aug 2016</t>
+  </si>
+  <si>
+    <t>University of Bergen</t>
+  </si>
+  <si>
+    <t>Jun 2016</t>
+  </si>
+  <si>
+    <t>IMBeR</t>
+  </si>
+  <si>
+    <t>Natal, Brazil</t>
+  </si>
+  <si>
+    <t>Topic: "Towards more resilient oceans: Predicting and projecting future changes in the ocean and their impacts on human societies"</t>
+  </si>
+  <si>
+    <t>ClimEco5 Summer School</t>
   </si>
 </sst>
 </file>
@@ -578,9 +616,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -938,16 +982,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
@@ -959,7 +1003,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -979,11 +1023,11 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -1006,63 +1050,105 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{27774AF1-D6DF-46EB-97B6-DB242729F9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C8A5BB54-6143-405A-A671-2396D12E9BEA}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{27774AF1-D6DF-46EB-97B6-DB242729F9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1677174-81E5-4AC1-9FC9-37A596B32007}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>what</t>
   </si>
@@ -48,9 +48,6 @@
     <t>why</t>
   </si>
   <si>
-    <t>Graduate Programme Marine Biology (M.Sc.)</t>
-  </si>
-  <si>
     <t>Faculty 2 Biology/Chemistry, University of Bremen</t>
   </si>
   <si>
@@ -69,12 +66,6 @@
     <t>Committee members: Prof. PhD Christian Jørgensen (University of Bergen), Prof. PhD Øyvind Fiksen (University of Bergen) and Associate Prof. PhD Øystein Varpe (University Centre in Svalbard).</t>
   </si>
   <si>
-    <t>Research Fellow / Doctoral student (PhD)</t>
-  </si>
-  <si>
-    <t>International Degree Course in Environmental and Industrial Biology (B.Sc.)</t>
-  </si>
-  <si>
     <t>Faculty 5 Nature and Engineering, University of Applied Sciences Bremen</t>
   </si>
   <si>
@@ -108,12 +99,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>As part of the  European Training Network on"Marine Management and Ecosystem Dynamics under Climate Change - MARmaED"</t>
-  </si>
-  <si>
-    <t>Bergen Summer research School: Water, Climate &amp; Society</t>
-  </si>
-  <si>
     <t>Aug 2016</t>
   </si>
   <si>
@@ -133,6 +118,81 @@
   </si>
   <si>
     <t>ClimEco5 Summer School</t>
+  </si>
+  <si>
+    <t>PhD position part of the  European Training Network on"Marine Management and Ecosystem Dynamics under Climate Change - MARmaED"</t>
+  </si>
+  <si>
+    <t>Courses:  "Evolution", "Conservation Biology", "Population Dynamics" and "Practice in Wildlife Research"</t>
+  </si>
+  <si>
+    <t>International Degree Course Ecology and Conservation</t>
+  </si>
+  <si>
+    <t>Evenstad, Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inland Norway University of Applied Sciences </t>
+  </si>
+  <si>
+    <t>Aug - Dec 2011</t>
+  </si>
+  <si>
+    <t>Undergraduate study semester abroad</t>
+  </si>
+  <si>
+    <t>Longyearbyen, Svalbard, Norway</t>
+  </si>
+  <si>
+    <t>Department of Artic Biology, University Centre in Svalbard</t>
+  </si>
+  <si>
+    <t>Aug - Sep 2014</t>
+  </si>
+  <si>
+    <t>Graduate Course Ecosystem-based Management of Arctic Marine Systems</t>
+  </si>
+  <si>
+    <t>Final grade:  First class with distinction</t>
+  </si>
+  <si>
+    <t>Courses:  "Data Analysis for Scientists using R", "Fisheries Ecology" and "Marine Mammals"</t>
+  </si>
+  <si>
+    <t>Reykjavík, Iceland</t>
+  </si>
+  <si>
+    <t>Institute of Biology, University of Iceland</t>
+  </si>
+  <si>
+    <t>May - Jul 2012</t>
+  </si>
+  <si>
+    <t>Graduate Marine and Fisheries Sciences Summer Programme</t>
+  </si>
+  <si>
+    <t>Duration: 5 month</t>
+  </si>
+  <si>
+    <t>Duration: 3 month</t>
+  </si>
+  <si>
+    <t>Duration: 2 month</t>
+  </si>
+  <si>
+    <t>Bergen Summer research School</t>
+  </si>
+  <si>
+    <t>Course: Water, Climate &amp; Society</t>
+  </si>
+  <si>
+    <t>PhD in Marine Evolutionary Ecology</t>
+  </si>
+  <si>
+    <t>International Degree Course in Environmental and Industrial Biology (BSc)</t>
+  </si>
+  <si>
+    <t>Graduate Programme Marine Biology (MSc)</t>
   </si>
 </sst>
 </file>
@@ -616,7 +676,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -626,6 +686,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -982,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1020,135 +1083,257 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F3" s="1" t="s">
-        <v>11</v>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F5" s="2" t="s">
-        <v>25</v>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="1" t="s">
-        <v>21</v>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="1" t="s">
-        <v>23</v>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
